--- a/Excel-XLSX/UN-HKG.xlsx
+++ b/Excel-XLSX/UN-HKG.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>YCXev8</t>
+    <t>4CMppg</t>
   </si>
   <si>
     <t>1997</t>
@@ -861,18 +861,18 @@
     <t>172</t>
   </si>
   <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
     <t>173</t>
   </si>
   <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>GHA</t>
-  </si>
-  <si>
     <t>174</t>
   </si>
   <si>
@@ -906,18 +906,18 @@
     <t>184</t>
   </si>
   <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
     <t>185</t>
   </si>
   <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
-    <t>GIN</t>
-  </si>
-  <si>
     <t>186</t>
   </si>
   <si>
@@ -942,18 +942,18 @@
     <t>193</t>
   </si>
   <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>ICO</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
     <t>194</t>
   </si>
   <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>ICO</t>
-  </si>
-  <si>
-    <t>CIV</t>
-  </si>
-  <si>
     <t>195</t>
   </si>
   <si>
@@ -981,15 +981,15 @@
     <t>203</t>
   </si>
   <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
     <t>204</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
     <t>205</t>
   </si>
   <si>
@@ -999,18 +999,18 @@
     <t>207</t>
   </si>
   <si>
+    <t>363</t>
+  </si>
+  <si>
     <t>208</t>
   </si>
   <si>
-    <t>363</t>
+    <t>241</t>
   </si>
   <si>
     <t>209</t>
   </si>
   <si>
-    <t>241</t>
-  </si>
-  <si>
     <t>210</t>
   </si>
   <si>
@@ -1026,22 +1026,22 @@
     <t>214</t>
   </si>
   <si>
+    <t>232</t>
+  </si>
+  <si>
     <t>215</t>
   </si>
   <si>
-    <t>232</t>
+    <t>302</t>
   </si>
   <si>
     <t>216</t>
   </si>
   <si>
-    <t>302</t>
+    <t>309</t>
   </si>
   <si>
     <t>217</t>
-  </si>
-  <si>
-    <t>309</t>
   </si>
   <si>
     <t>218</t>
@@ -2982,8 +2982,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -3050,8 +3050,8 @@
       <c r="U3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>33</v>
+      <c r="V3" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -3118,8 +3118,8 @@
       <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>33</v>
+      <c r="V4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -3186,8 +3186,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -3254,8 +3254,8 @@
       <c r="U6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>33</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -3322,8 +3322,8 @@
       <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>33</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -3390,8 +3390,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -3458,8 +3458,8 @@
       <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>33</v>
+      <c r="V9" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -3526,8 +3526,8 @@
       <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>33</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -3594,8 +3594,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -3662,8 +3662,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -3730,8 +3730,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -3798,8 +3798,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -3866,8 +3866,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -3934,8 +3934,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -4002,8 +4002,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -4070,8 +4070,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -4138,8 +4138,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -4251,7 +4251,7 @@
         <v>30</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>32</v>
@@ -4342,8 +4342,8 @@
       <c r="U22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>33</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -4410,8 +4410,8 @@
       <c r="U23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>33</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -4478,8 +4478,8 @@
       <c r="U24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>33</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -4546,8 +4546,8 @@
       <c r="U25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>33</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -4614,8 +4614,8 @@
       <c r="U26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>33</v>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -4682,8 +4682,8 @@
       <c r="U27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>33</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -4750,8 +4750,8 @@
       <c r="U28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>33</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -4818,8 +4818,8 @@
       <c r="U29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>33</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -4886,8 +4886,8 @@
       <c r="U30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>33</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -4954,8 +4954,8 @@
       <c r="U31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>33</v>
+      <c r="V31" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -5022,8 +5022,8 @@
       <c r="U32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>33</v>
+      <c r="V32" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -5090,8 +5090,8 @@
       <c r="U33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>33</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -5158,8 +5158,8 @@
       <c r="U34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>33</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -5226,8 +5226,8 @@
       <c r="U35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>33</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -5294,8 +5294,8 @@
       <c r="U36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>33</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -5362,8 +5362,8 @@
       <c r="U37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>33</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -5430,8 +5430,8 @@
       <c r="U38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>33</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -5634,8 +5634,8 @@
       <c r="U41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>33</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -5702,8 +5702,8 @@
       <c r="U42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>33</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -5770,8 +5770,8 @@
       <c r="U43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>33</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -5838,8 +5838,8 @@
       <c r="U44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>33</v>
+      <c r="V44" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -5906,8 +5906,8 @@
       <c r="U45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V45" s="1" t="s">
-        <v>33</v>
+      <c r="V45" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -5974,8 +5974,8 @@
       <c r="U46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>33</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -6087,7 +6087,7 @@
         <v>30</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>32</v>
@@ -6178,8 +6178,8 @@
       <c r="U49" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>33</v>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -6246,8 +6246,8 @@
       <c r="U50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>33</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -6314,8 +6314,8 @@
       <c r="U51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>33</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -6382,8 +6382,8 @@
       <c r="U52" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>33</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -6450,8 +6450,8 @@
       <c r="U53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>33</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -6518,8 +6518,8 @@
       <c r="U54" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>33</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -6586,8 +6586,8 @@
       <c r="U55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>33</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -6654,8 +6654,8 @@
       <c r="U56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V56" s="1" t="s">
-        <v>33</v>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -6722,8 +6722,8 @@
       <c r="U57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>33</v>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="58">
@@ -6790,8 +6790,8 @@
       <c r="U58" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V58" s="1" t="s">
-        <v>33</v>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59">
@@ -6858,8 +6858,8 @@
       <c r="U59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V59" s="1" t="s">
-        <v>33</v>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60">
@@ -6926,8 +6926,8 @@
       <c r="U60" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V60" s="1" t="s">
-        <v>33</v>
+      <c r="V60" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="61">
@@ -6994,8 +6994,8 @@
       <c r="U61" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V61" s="1" t="s">
-        <v>33</v>
+      <c r="V61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
@@ -7062,8 +7062,8 @@
       <c r="U62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>33</v>
+      <c r="V62" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="63">
@@ -7130,8 +7130,8 @@
       <c r="U63" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V63" s="1" t="s">
-        <v>33</v>
+      <c r="V63" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -7198,8 +7198,8 @@
       <c r="U64" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V64" s="1" t="s">
-        <v>33</v>
+      <c r="V64" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
@@ -7266,8 +7266,8 @@
       <c r="U65" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V65" s="1" t="s">
-        <v>33</v>
+      <c r="V65" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="66">
@@ -7334,8 +7334,8 @@
       <c r="U66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V66" s="1" t="s">
-        <v>33</v>
+      <c r="V66" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67">
@@ -7402,8 +7402,8 @@
       <c r="U67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>33</v>
+      <c r="V67" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="68">
@@ -7470,8 +7470,8 @@
       <c r="U68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V68" s="1" t="s">
-        <v>33</v>
+      <c r="V68" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="69">
@@ -7538,8 +7538,8 @@
       <c r="U69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V69" s="1" t="s">
-        <v>33</v>
+      <c r="V69" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70">
@@ -7651,7 +7651,7 @@
         <v>30</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>32</v>
@@ -7742,8 +7742,8 @@
       <c r="U72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>33</v>
+      <c r="V72" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="73">
@@ -7810,8 +7810,8 @@
       <c r="U73" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V73" s="1" t="s">
-        <v>33</v>
+      <c r="V73" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="74">
@@ -7878,8 +7878,8 @@
       <c r="U74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V74" s="1" t="s">
-        <v>33</v>
+      <c r="V74" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="75">
@@ -7946,8 +7946,8 @@
       <c r="U75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V75" s="1" t="s">
-        <v>33</v>
+      <c r="V75" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="76">
@@ -8014,8 +8014,8 @@
       <c r="U76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>33</v>
+      <c r="V76" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -8082,8 +8082,8 @@
       <c r="U77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>33</v>
+      <c r="V77" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78">
@@ -8150,8 +8150,8 @@
       <c r="U78" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V78" s="1" t="s">
-        <v>33</v>
+      <c r="V78" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="79">
@@ -8218,8 +8218,8 @@
       <c r="U79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V79" s="1" t="s">
-        <v>33</v>
+      <c r="V79" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="80">
@@ -8286,8 +8286,8 @@
       <c r="U80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>33</v>
+      <c r="V80" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="81">
@@ -8490,8 +8490,8 @@
       <c r="U83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V83" s="1" t="s">
-        <v>33</v>
+      <c r="V83" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="84">
@@ -8558,8 +8558,8 @@
       <c r="U84" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V84" s="1" t="s">
-        <v>33</v>
+      <c r="V84" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="85">
@@ -8626,8 +8626,8 @@
       <c r="U85" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V85" s="1" t="s">
-        <v>33</v>
+      <c r="V85" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="86">
@@ -8694,8 +8694,8 @@
       <c r="U86" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V86" s="1" t="s">
-        <v>33</v>
+      <c r="V86" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -8762,8 +8762,8 @@
       <c r="U87" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V87" s="1" t="s">
-        <v>33</v>
+      <c r="V87" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -8830,8 +8830,8 @@
       <c r="U88" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V88" s="1" t="s">
-        <v>33</v>
+      <c r="V88" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="89">
@@ -8898,8 +8898,8 @@
       <c r="U89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V89" s="1" t="s">
-        <v>33</v>
+      <c r="V89" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="90">
@@ -8966,8 +8966,8 @@
       <c r="U90" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V90" s="1" t="s">
-        <v>33</v>
+      <c r="V90" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="91">
@@ -9034,8 +9034,8 @@
       <c r="U91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V91" s="1" t="s">
-        <v>33</v>
+      <c r="V91" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="92">
@@ -9102,8 +9102,8 @@
       <c r="U92" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V92" s="1" t="s">
-        <v>33</v>
+      <c r="V92" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -9170,8 +9170,8 @@
       <c r="U93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V93" s="1" t="s">
-        <v>33</v>
+      <c r="V93" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="94">
@@ -9238,8 +9238,8 @@
       <c r="U94" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V94" s="1" t="s">
-        <v>33</v>
+      <c r="V94" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="95">
@@ -9306,8 +9306,8 @@
       <c r="U95" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V95" s="1" t="s">
-        <v>33</v>
+      <c r="V95" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="96">
@@ -9510,8 +9510,8 @@
       <c r="U98" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V98" s="1" t="s">
-        <v>33</v>
+      <c r="V98" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="99">
@@ -9578,8 +9578,8 @@
       <c r="U99" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V99" s="1" t="s">
-        <v>33</v>
+      <c r="V99" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="100">
@@ -9646,8 +9646,8 @@
       <c r="U100" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V100" s="1" t="s">
-        <v>33</v>
+      <c r="V100" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="101">
@@ -9714,8 +9714,8 @@
       <c r="U101" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V101" s="1" t="s">
-        <v>33</v>
+      <c r="V101" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102">
@@ -9782,8 +9782,8 @@
       <c r="U102" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V102" s="1" t="s">
-        <v>33</v>
+      <c r="V102" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="103">
@@ -9850,8 +9850,8 @@
       <c r="U103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V103" s="1" t="s">
-        <v>33</v>
+      <c r="V103" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
@@ -9918,8 +9918,8 @@
       <c r="U104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V104" s="1" t="s">
-        <v>33</v>
+      <c r="V104" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="105">
@@ -9986,8 +9986,8 @@
       <c r="U105" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V105" s="1" t="s">
-        <v>33</v>
+      <c r="V105" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="106">
@@ -10054,8 +10054,8 @@
       <c r="U106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V106" s="1" t="s">
-        <v>33</v>
+      <c r="V106" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="107">
@@ -10122,8 +10122,8 @@
       <c r="U107" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V107" s="1" t="s">
-        <v>33</v>
+      <c r="V107" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108">
@@ -10190,8 +10190,8 @@
       <c r="U108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V108" s="1" t="s">
-        <v>33</v>
+      <c r="V108" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="109">
@@ -10258,8 +10258,8 @@
       <c r="U109" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V109" s="1" t="s">
-        <v>33</v>
+      <c r="V109" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="110">
@@ -10326,8 +10326,8 @@
       <c r="U110" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V110" s="1" t="s">
-        <v>33</v>
+      <c r="V110" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="111">
@@ -10394,8 +10394,8 @@
       <c r="U111" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V111" s="1" t="s">
-        <v>33</v>
+      <c r="V111" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="112">
@@ -10462,8 +10462,8 @@
       <c r="U112" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V112" s="1" t="s">
-        <v>33</v>
+      <c r="V112" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113">
@@ -10530,8 +10530,8 @@
       <c r="U113" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V113" s="1" t="s">
-        <v>33</v>
+      <c r="V113" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -10598,8 +10598,8 @@
       <c r="U114" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V114" s="1" t="s">
-        <v>33</v>
+      <c r="V114" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -10666,8 +10666,8 @@
       <c r="U115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V115" s="1" t="s">
-        <v>33</v>
+      <c r="V115" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="116">
@@ -10734,8 +10734,8 @@
       <c r="U116" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V116" s="1" t="s">
-        <v>33</v>
+      <c r="V116" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="117">
@@ -10802,8 +10802,8 @@
       <c r="U117" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V117" s="1" t="s">
-        <v>33</v>
+      <c r="V117" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -10870,8 +10870,8 @@
       <c r="U118" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V118" s="1" t="s">
-        <v>33</v>
+      <c r="V118" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="119">
@@ -10938,8 +10938,8 @@
       <c r="U119" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V119" s="1" t="s">
-        <v>33</v>
+      <c r="V119" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="120">
@@ -11006,8 +11006,8 @@
       <c r="U120" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V120" s="1" t="s">
-        <v>33</v>
+      <c r="V120" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="121">
@@ -11074,8 +11074,8 @@
       <c r="U121" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V121" s="1" t="s">
-        <v>33</v>
+      <c r="V121" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122">
@@ -11142,8 +11142,8 @@
       <c r="U122" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V122" s="1" t="s">
-        <v>33</v>
+      <c r="V122" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
@@ -11210,8 +11210,8 @@
       <c r="U123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V123" s="1" t="s">
-        <v>33</v>
+      <c r="V123" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="124">
@@ -11414,8 +11414,8 @@
       <c r="U126" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V126" s="1" t="s">
-        <v>33</v>
+      <c r="V126" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="127">
@@ -11482,8 +11482,8 @@
       <c r="U127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V127" s="1" t="s">
-        <v>33</v>
+      <c r="V127" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="128">
@@ -11550,8 +11550,8 @@
       <c r="U128" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V128" s="1" t="s">
-        <v>33</v>
+      <c r="V128" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="129">
@@ -11618,8 +11618,8 @@
       <c r="U129" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V129" s="1" t="s">
-        <v>33</v>
+      <c r="V129" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="130">
@@ -11686,8 +11686,8 @@
       <c r="U130" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V130" s="1" t="s">
-        <v>33</v>
+      <c r="V130" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="131">
@@ -11754,8 +11754,8 @@
       <c r="U131" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V131" s="1" t="s">
-        <v>33</v>
+      <c r="V131" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="132">
@@ -11822,8 +11822,8 @@
       <c r="U132" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V132" s="1" t="s">
-        <v>33</v>
+      <c r="V132" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="133">
@@ -11890,8 +11890,8 @@
       <c r="U133" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V133" s="1" t="s">
-        <v>33</v>
+      <c r="V133" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="134">
@@ -11958,8 +11958,8 @@
       <c r="U134" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V134" s="1" t="s">
-        <v>33</v>
+      <c r="V134" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="135">
@@ -12026,8 +12026,8 @@
       <c r="U135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V135" s="1" t="s">
-        <v>33</v>
+      <c r="V135" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="136">
@@ -12094,8 +12094,8 @@
       <c r="U136" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V136" s="1" t="s">
-        <v>33</v>
+      <c r="V136" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="137">
@@ -12162,8 +12162,8 @@
       <c r="U137" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V137" s="1" t="s">
-        <v>33</v>
+      <c r="V137" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="138">
@@ -12230,8 +12230,8 @@
       <c r="U138" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V138" s="1" t="s">
-        <v>33</v>
+      <c r="V138" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="139">
@@ -12298,8 +12298,8 @@
       <c r="U139" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V139" s="1" t="s">
-        <v>33</v>
+      <c r="V139" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="140">
@@ -12366,8 +12366,8 @@
       <c r="U140" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V140" s="1" t="s">
-        <v>33</v>
+      <c r="V140" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="141">
@@ -12434,8 +12434,8 @@
       <c r="U141" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V141" s="1" t="s">
-        <v>33</v>
+      <c r="V141" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="142">
@@ -12502,8 +12502,8 @@
       <c r="U142" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V142" s="1" t="s">
-        <v>33</v>
+      <c r="V142" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="143">
@@ -12570,8 +12570,8 @@
       <c r="U143" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V143" s="1" t="s">
-        <v>33</v>
+      <c r="V143" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="144">
@@ -12638,8 +12638,8 @@
       <c r="U144" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V144" s="1" t="s">
-        <v>33</v>
+      <c r="V144" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="145">
@@ -12706,8 +12706,8 @@
       <c r="U145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V145" s="1" t="s">
-        <v>33</v>
+      <c r="V145" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="146">
@@ -12774,8 +12774,8 @@
       <c r="U146" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V146" s="1" t="s">
-        <v>33</v>
+      <c r="V146" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="147">
@@ -12842,8 +12842,8 @@
       <c r="U147" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V147" s="1" t="s">
-        <v>33</v>
+      <c r="V147" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="148">
@@ -12910,8 +12910,8 @@
       <c r="U148" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V148" s="1" t="s">
-        <v>33</v>
+      <c r="V148" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="149">
@@ -12978,8 +12978,8 @@
       <c r="U149" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V149" s="1" t="s">
-        <v>33</v>
+      <c r="V149" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="150">
@@ -13046,8 +13046,8 @@
       <c r="U150" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V150" s="1" t="s">
-        <v>33</v>
+      <c r="V150" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="151">
@@ -13114,8 +13114,8 @@
       <c r="U151" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V151" s="1" t="s">
-        <v>33</v>
+      <c r="V151" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="152">
@@ -13182,8 +13182,8 @@
       <c r="U152" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V152" s="1" t="s">
-        <v>33</v>
+      <c r="V152" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="153">
@@ -13250,8 +13250,8 @@
       <c r="U153" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V153" s="1" t="s">
-        <v>33</v>
+      <c r="V153" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="154">
@@ -13318,8 +13318,8 @@
       <c r="U154" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V154" s="1" t="s">
-        <v>33</v>
+      <c r="V154" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="155">
@@ -13386,8 +13386,8 @@
       <c r="U155" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V155" s="1" t="s">
-        <v>33</v>
+      <c r="V155" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="156">
@@ -13454,8 +13454,8 @@
       <c r="U156" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V156" s="1" t="s">
-        <v>33</v>
+      <c r="V156" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="157">
@@ -13658,8 +13658,8 @@
       <c r="U159" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V159" s="1" t="s">
-        <v>33</v>
+      <c r="V159" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="160">
@@ -13726,8 +13726,8 @@
       <c r="U160" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V160" s="1" t="s">
-        <v>33</v>
+      <c r="V160" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="161">
@@ -13794,8 +13794,8 @@
       <c r="U161" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V161" s="1" t="s">
-        <v>33</v>
+      <c r="V161" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="162">
@@ -13862,8 +13862,8 @@
       <c r="U162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V162" s="1" t="s">
-        <v>33</v>
+      <c r="V162" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="163">
@@ -13930,8 +13930,8 @@
       <c r="U163" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V163" s="1" t="s">
-        <v>33</v>
+      <c r="V163" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="164">
@@ -13998,8 +13998,8 @@
       <c r="U164" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V164" s="1" t="s">
-        <v>33</v>
+      <c r="V164" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="165">
@@ -14066,8 +14066,8 @@
       <c r="U165" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V165" s="1" t="s">
-        <v>33</v>
+      <c r="V165" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="166">
@@ -14134,8 +14134,8 @@
       <c r="U166" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V166" s="1" t="s">
-        <v>33</v>
+      <c r="V166" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="167">
@@ -14202,8 +14202,8 @@
       <c r="U167" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V167" s="1" t="s">
-        <v>33</v>
+      <c r="V167" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="168">
@@ -14270,8 +14270,8 @@
       <c r="U168" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V168" s="1" t="s">
-        <v>33</v>
+      <c r="V168" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="169">
@@ -14338,8 +14338,8 @@
       <c r="U169" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V169" s="1" t="s">
-        <v>33</v>
+      <c r="V169" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="170">
@@ -14406,8 +14406,8 @@
       <c r="U170" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V170" s="1" t="s">
-        <v>33</v>
+      <c r="V170" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="171">
@@ -14474,8 +14474,8 @@
       <c r="U171" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V171" s="1" t="s">
-        <v>33</v>
+      <c r="V171" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="172">
@@ -14560,19 +14560,19 @@
         <v>280</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>28</v>
@@ -14625,22 +14625,22 @@
         <v>22</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G174" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H174" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H174" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I174" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>28</v>
@@ -14655,10 +14655,10 @@
         <v>30</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O174" s="2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P174" s="2" t="s">
         <v>32</v>
@@ -14678,8 +14678,8 @@
       <c r="U174" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V174" s="1" t="s">
-        <v>33</v>
+      <c r="V174" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="175">
@@ -14696,19 +14696,19 @@
         <v>285</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G175" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H175" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I175" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J175" s="2" t="s">
         <v>28</v>
@@ -14726,7 +14726,7 @@
         <v>32</v>
       </c>
       <c r="O175" s="2" t="s">
-        <v>64</v>
+        <v>179</v>
       </c>
       <c r="P175" s="2" t="s">
         <v>32</v>
@@ -14746,8 +14746,8 @@
       <c r="U175" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V175" s="1" t="s">
-        <v>33</v>
+      <c r="V175" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="176">
@@ -14764,19 +14764,19 @@
         <v>286</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G176" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H176" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H176" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I176" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J176" s="2" t="s">
         <v>28</v>
@@ -14794,7 +14794,7 @@
         <v>32</v>
       </c>
       <c r="O176" s="2" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="P176" s="2" t="s">
         <v>32</v>
@@ -14814,8 +14814,8 @@
       <c r="U176" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V176" s="1" t="s">
-        <v>33</v>
+      <c r="V176" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="177">
@@ -14832,19 +14832,19 @@
         <v>287</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G177" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H177" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H177" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I177" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J177" s="2" t="s">
         <v>28</v>
@@ -14862,7 +14862,7 @@
         <v>32</v>
       </c>
       <c r="O177" s="2" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="P177" s="2" t="s">
         <v>32</v>
@@ -14882,8 +14882,8 @@
       <c r="U177" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V177" s="1" t="s">
-        <v>33</v>
+      <c r="V177" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="178">
@@ -14900,19 +14900,19 @@
         <v>288</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G178" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H178" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I178" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J178" s="2" t="s">
         <v>28</v>
@@ -14930,7 +14930,7 @@
         <v>32</v>
       </c>
       <c r="O178" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="P178" s="2" t="s">
         <v>32</v>
@@ -14950,8 +14950,8 @@
       <c r="U178" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V178" s="1" t="s">
-        <v>33</v>
+      <c r="V178" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="179">
@@ -14968,19 +14968,19 @@
         <v>289</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G179" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H179" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H179" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I179" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>28</v>
@@ -14998,7 +14998,7 @@
         <v>32</v>
       </c>
       <c r="O179" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P179" s="2" t="s">
         <v>32</v>
@@ -15018,8 +15018,8 @@
       <c r="U179" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V179" s="1" t="s">
-        <v>33</v>
+      <c r="V179" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="180">
@@ -15036,19 +15036,19 @@
         <v>290</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G180" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H180" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H180" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I180" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>28</v>
@@ -15086,8 +15086,8 @@
       <c r="U180" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V180" s="1" t="s">
-        <v>33</v>
+      <c r="V180" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="181">
@@ -15104,19 +15104,19 @@
         <v>291</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G181" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H181" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H181" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I181" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>28</v>
@@ -15154,8 +15154,8 @@
       <c r="U181" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V181" s="1" t="s">
-        <v>33</v>
+      <c r="V181" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="182">
@@ -15172,19 +15172,19 @@
         <v>292</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G182" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H182" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H182" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I182" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>28</v>
@@ -15222,8 +15222,8 @@
       <c r="U182" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V182" s="1" t="s">
-        <v>33</v>
+      <c r="V182" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="183">
@@ -15240,19 +15240,19 @@
         <v>293</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G183" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H183" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H183" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I183" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>28</v>
@@ -15290,8 +15290,8 @@
       <c r="U183" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V183" s="1" t="s">
-        <v>33</v>
+      <c r="V183" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="184">
@@ -15308,19 +15308,19 @@
         <v>294</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G184" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H184" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="I184" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>28</v>
@@ -15358,8 +15358,8 @@
       <c r="U184" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V184" s="1" t="s">
-        <v>33</v>
+      <c r="V184" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="185">
@@ -15376,19 +15376,19 @@
         <v>295</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>28</v>
@@ -15426,8 +15426,8 @@
       <c r="U185" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V185" s="1" t="s">
-        <v>33</v>
+      <c r="V185" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="186">
@@ -15441,22 +15441,22 @@
         <v>22</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G186" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H186" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H186" s="1" t="s">
+      <c r="I186" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>28</v>
@@ -15494,8 +15494,8 @@
       <c r="U186" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V186" s="1" t="s">
-        <v>33</v>
+      <c r="V186" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="187">
@@ -15512,19 +15512,19 @@
         <v>300</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G187" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H187" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H187" s="1" t="s">
+      <c r="I187" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>28</v>
@@ -15562,8 +15562,8 @@
       <c r="U187" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V187" s="1" t="s">
-        <v>33</v>
+      <c r="V187" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="188">
@@ -15580,19 +15580,19 @@
         <v>301</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G188" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H188" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H188" s="1" t="s">
+      <c r="I188" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>28</v>
@@ -15630,8 +15630,8 @@
       <c r="U188" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V188" s="1" t="s">
-        <v>33</v>
+      <c r="V188" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="189">
@@ -15648,19 +15648,19 @@
         <v>302</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G189" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H189" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H189" s="1" t="s">
+      <c r="I189" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>28</v>
@@ -15698,8 +15698,8 @@
       <c r="U189" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V189" s="1" t="s">
-        <v>33</v>
+      <c r="V189" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="190">
@@ -15716,19 +15716,19 @@
         <v>303</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G190" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H190" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H190" s="1" t="s">
+      <c r="I190" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>28</v>
@@ -15766,8 +15766,8 @@
       <c r="U190" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V190" s="1" t="s">
-        <v>33</v>
+      <c r="V190" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="191">
@@ -15784,20 +15784,20 @@
         <v>304</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G191" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H191" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H191" s="1" t="s">
+      <c r="I191" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I191" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="J191" s="2" t="s">
         <v>28</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>32</v>
       </c>
       <c r="O191" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="P191" s="2" t="s">
         <v>32</v>
@@ -15834,8 +15834,8 @@
       <c r="U191" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V191" s="1" t="s">
-        <v>33</v>
+      <c r="V191" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="192">
@@ -15852,19 +15852,19 @@
         <v>305</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G192" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H192" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H192" s="1" t="s">
+      <c r="I192" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>28</v>
@@ -15902,8 +15902,8 @@
       <c r="U192" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V192" s="1" t="s">
-        <v>33</v>
+      <c r="V192" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="193">
@@ -15920,20 +15920,20 @@
         <v>306</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G193" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H193" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="I193" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I193" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="J193" s="2" t="s">
         <v>28</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>32</v>
       </c>
       <c r="O193" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P193" s="2" t="s">
         <v>32</v>
@@ -15970,8 +15970,8 @@
       <c r="U193" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V193" s="1" t="s">
-        <v>33</v>
+      <c r="V193" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="194">
@@ -15988,19 +15988,19 @@
         <v>307</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="J194" s="2" t="s">
         <v>28</v>
@@ -16018,7 +16018,7 @@
         <v>32</v>
       </c>
       <c r="O194" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="P194" s="2" t="s">
         <v>32</v>
@@ -16038,8 +16038,8 @@
       <c r="U194" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V194" s="1" t="s">
-        <v>33</v>
+      <c r="V194" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="195">
@@ -16053,23 +16053,23 @@
         <v>22</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G195" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H195" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H195" s="1" t="s">
+      <c r="I195" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I195" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="J195" s="2" t="s">
         <v>28</v>
       </c>
@@ -16083,10 +16083,10 @@
         <v>30</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P195" s="2" t="s">
         <v>32</v>
@@ -16106,8 +16106,8 @@
       <c r="U195" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V195" s="1" t="s">
-        <v>33</v>
+      <c r="V195" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="196">
@@ -16124,20 +16124,20 @@
         <v>312</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G196" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H196" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H196" s="1" t="s">
+      <c r="I196" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I196" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="J196" s="2" t="s">
         <v>28</v>
       </c>
@@ -16151,11 +16151,11 @@
         <v>30</v>
       </c>
       <c r="N196" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O196" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O196" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P196" s="2" t="s">
         <v>32</v>
       </c>
@@ -16174,8 +16174,8 @@
       <c r="U196" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V196" s="1" t="s">
-        <v>33</v>
+      <c r="V196" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="197">
@@ -16192,20 +16192,20 @@
         <v>313</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G197" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H197" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H197" s="1" t="s">
+      <c r="I197" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I197" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="J197" s="2" t="s">
         <v>28</v>
       </c>
@@ -16222,7 +16222,7 @@
         <v>32</v>
       </c>
       <c r="O197" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="P197" s="2" t="s">
         <v>32</v>
@@ -16242,8 +16242,8 @@
       <c r="U197" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V197" s="1" t="s">
-        <v>33</v>
+      <c r="V197" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="198">
@@ -16260,20 +16260,20 @@
         <v>314</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G198" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H198" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H198" s="1" t="s">
+      <c r="I198" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I198" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="J198" s="2" t="s">
         <v>28</v>
       </c>
@@ -16290,7 +16290,7 @@
         <v>32</v>
       </c>
       <c r="O198" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="P198" s="2" t="s">
         <v>32</v>
@@ -16310,8 +16310,8 @@
       <c r="U198" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V198" s="1" t="s">
-        <v>33</v>
+      <c r="V198" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="199">
@@ -16328,20 +16328,20 @@
         <v>315</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G199" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H199" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H199" s="1" t="s">
+      <c r="I199" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I199" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="J199" s="2" t="s">
         <v>28</v>
       </c>
@@ -16355,10 +16355,10 @@
         <v>30</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O199" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P199" s="2" t="s">
         <v>32</v>
@@ -16378,8 +16378,8 @@
       <c r="U199" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V199" s="1" t="s">
-        <v>33</v>
+      <c r="V199" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="200">
@@ -16396,20 +16396,20 @@
         <v>316</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G200" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H200" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H200" s="1" t="s">
+      <c r="I200" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I200" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="J200" s="2" t="s">
         <v>28</v>
       </c>
@@ -16423,11 +16423,11 @@
         <v>30</v>
       </c>
       <c r="N200" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O200" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O200" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P200" s="2" t="s">
         <v>32</v>
       </c>
@@ -16446,8 +16446,8 @@
       <c r="U200" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V200" s="1" t="s">
-        <v>33</v>
+      <c r="V200" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="201">
@@ -16464,20 +16464,20 @@
         <v>317</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G201" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H201" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H201" s="1" t="s">
+      <c r="I201" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I201" s="1" t="s">
-        <v>311</v>
-      </c>
       <c r="J201" s="2" t="s">
         <v>28</v>
       </c>
@@ -16491,10 +16491,10 @@
         <v>30</v>
       </c>
       <c r="N201" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O201" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P201" s="2" t="s">
         <v>32</v>
@@ -16514,8 +16514,8 @@
       <c r="U201" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V201" s="1" t="s">
-        <v>33</v>
+      <c r="V201" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="202">
@@ -16532,19 +16532,19 @@
         <v>318</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G202" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H202" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H202" s="1" t="s">
+      <c r="I202" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="I202" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>28</v>
@@ -16582,8 +16582,8 @@
       <c r="U202" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V202" s="1" t="s">
-        <v>33</v>
+      <c r="V202" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="203">
@@ -16600,19 +16600,19 @@
         <v>319</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G203" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H203" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H203" s="1" t="s">
+      <c r="I203" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="I203" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>28</v>
@@ -16650,8 +16650,8 @@
       <c r="U203" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V203" s="1" t="s">
-        <v>33</v>
+      <c r="V203" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="204">
@@ -16668,19 +16668,19 @@
         <v>320</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>28</v>
@@ -16695,10 +16695,10 @@
         <v>30</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O204" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="P204" s="2" t="s">
         <v>32</v>
@@ -16718,8 +16718,8 @@
       <c r="U204" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V204" s="1" t="s">
-        <v>33</v>
+      <c r="V204" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="205">
@@ -16733,22 +16733,22 @@
         <v>22</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G205" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H205" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I205" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>28</v>
@@ -16766,7 +16766,7 @@
         <v>32</v>
       </c>
       <c r="O205" s="2" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="P205" s="2" t="s">
         <v>32</v>
@@ -16786,8 +16786,8 @@
       <c r="U205" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V205" s="1" t="s">
-        <v>33</v>
+      <c r="V205" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="206">
@@ -16804,19 +16804,19 @@
         <v>324</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G206" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H206" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H206" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I206" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>28</v>
@@ -16834,7 +16834,7 @@
         <v>32</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="P206" s="2" t="s">
         <v>32</v>
@@ -16854,8 +16854,8 @@
       <c r="U206" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V206" s="1" t="s">
-        <v>33</v>
+      <c r="V206" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="207">
@@ -16872,19 +16872,19 @@
         <v>325</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G207" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H207" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I207" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J207" s="2" t="s">
         <v>28</v>
@@ -16902,7 +16902,7 @@
         <v>32</v>
       </c>
       <c r="O207" s="2" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="P207" s="2" t="s">
         <v>32</v>
@@ -16922,8 +16922,8 @@
       <c r="U207" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V207" s="1" t="s">
-        <v>33</v>
+      <c r="V207" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="208">
@@ -16940,19 +16940,19 @@
         <v>326</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G208" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H208" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H208" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I208" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>28</v>
@@ -16970,7 +16970,7 @@
         <v>32</v>
       </c>
       <c r="O208" s="2" t="s">
-        <v>201</v>
+        <v>327</v>
       </c>
       <c r="P208" s="2" t="s">
         <v>32</v>
@@ -16990,8 +16990,8 @@
       <c r="U208" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V208" s="1" t="s">
-        <v>33</v>
+      <c r="V208" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="209">
@@ -17005,22 +17005,22 @@
         <v>22</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G209" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H209" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I209" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>28</v>
@@ -17038,7 +17038,7 @@
         <v>32</v>
       </c>
       <c r="O209" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P209" s="2" t="s">
         <v>32</v>
@@ -17058,8 +17058,8 @@
       <c r="U209" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V209" s="1" t="s">
-        <v>33</v>
+      <c r="V209" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="210">
@@ -17073,22 +17073,22 @@
         <v>22</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G210" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H210" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I210" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J210" s="2" t="s">
         <v>28</v>
@@ -17106,7 +17106,7 @@
         <v>32</v>
       </c>
       <c r="O210" s="2" t="s">
-        <v>330</v>
+        <v>176</v>
       </c>
       <c r="P210" s="2" t="s">
         <v>32</v>
@@ -17126,8 +17126,8 @@
       <c r="U210" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V210" s="1" t="s">
-        <v>33</v>
+      <c r="V210" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="211">
@@ -17144,19 +17144,19 @@
         <v>331</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G211" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H211" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I211" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J211" s="2" t="s">
         <v>28</v>
@@ -17174,7 +17174,7 @@
         <v>32</v>
       </c>
       <c r="O211" s="2" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="P211" s="2" t="s">
         <v>32</v>
@@ -17194,8 +17194,8 @@
       <c r="U211" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V211" s="1" t="s">
-        <v>33</v>
+      <c r="V211" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="212">
@@ -17212,19 +17212,19 @@
         <v>332</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G212" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H212" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H212" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I212" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J212" s="2" t="s">
         <v>28</v>
@@ -17262,8 +17262,8 @@
       <c r="U212" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V212" s="1" t="s">
-        <v>33</v>
+      <c r="V212" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="213">
@@ -17280,19 +17280,19 @@
         <v>333</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G213" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H213" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H213" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I213" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J213" s="2" t="s">
         <v>28</v>
@@ -17310,7 +17310,7 @@
         <v>32</v>
       </c>
       <c r="O213" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="P213" s="2" t="s">
         <v>32</v>
@@ -17330,8 +17330,8 @@
       <c r="U213" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V213" s="1" t="s">
-        <v>33</v>
+      <c r="V213" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="214">
@@ -17348,19 +17348,19 @@
         <v>334</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G214" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H214" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H214" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I214" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J214" s="2" t="s">
         <v>28</v>
@@ -17378,7 +17378,7 @@
         <v>32</v>
       </c>
       <c r="O214" s="2" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="P214" s="2" t="s">
         <v>32</v>
@@ -17398,8 +17398,8 @@
       <c r="U214" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V214" s="1" t="s">
-        <v>33</v>
+      <c r="V214" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="215">
@@ -17416,19 +17416,19 @@
         <v>335</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G215" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H215" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H215" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I215" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J215" s="2" t="s">
         <v>28</v>
@@ -17446,7 +17446,7 @@
         <v>32</v>
       </c>
       <c r="O215" s="2" t="s">
-        <v>141</v>
+        <v>336</v>
       </c>
       <c r="P215" s="2" t="s">
         <v>32</v>
@@ -17466,8 +17466,8 @@
       <c r="U215" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V215" s="1" t="s">
-        <v>33</v>
+      <c r="V215" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="216">
@@ -17481,22 +17481,22 @@
         <v>22</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G216" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H216" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H216" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I216" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J216" s="2" t="s">
         <v>28</v>
@@ -17511,10 +17511,10 @@
         <v>30</v>
       </c>
       <c r="N216" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O216" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P216" s="2" t="s">
         <v>32</v>
@@ -17534,8 +17534,8 @@
       <c r="U216" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V216" s="1" t="s">
-        <v>33</v>
+      <c r="V216" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="217">
@@ -17549,22 +17549,22 @@
         <v>22</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G217" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H217" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H217" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I217" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>28</v>
@@ -17579,10 +17579,10 @@
         <v>30</v>
       </c>
       <c r="N217" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O217" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P217" s="2" t="s">
         <v>32</v>
@@ -17602,8 +17602,8 @@
       <c r="U217" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V217" s="1" t="s">
-        <v>33</v>
+      <c r="V217" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="218">
@@ -17617,22 +17617,22 @@
         <v>22</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>138</v>
       </c>
       <c r="G218" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H218" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="H218" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="I218" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J218" s="2" t="s">
         <v>28</v>
@@ -17647,10 +17647,10 @@
         <v>30</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O218" s="2" t="s">
-        <v>341</v>
+        <v>32</v>
       </c>
       <c r="P218" s="2" t="s">
         <v>32</v>
@@ -17670,8 +17670,8 @@
       <c r="U218" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V218" s="1" t="s">
-        <v>33</v>
+      <c r="V218" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="219">
@@ -17738,8 +17738,8 @@
       <c r="U219" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V219" s="1" t="s">
-        <v>33</v>
+      <c r="V219" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="220">
@@ -17806,8 +17806,8 @@
       <c r="U220" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V220" s="1" t="s">
-        <v>33</v>
+      <c r="V220" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="221">
@@ -17874,8 +17874,8 @@
       <c r="U221" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V221" s="1" t="s">
-        <v>33</v>
+      <c r="V221" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="222">
@@ -17942,8 +17942,8 @@
       <c r="U222" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V222" s="1" t="s">
-        <v>33</v>
+      <c r="V222" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="223">
@@ -18010,8 +18010,8 @@
       <c r="U223" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V223" s="1" t="s">
-        <v>33</v>
+      <c r="V223" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="224">
@@ -18078,8 +18078,8 @@
       <c r="U224" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V224" s="1" t="s">
-        <v>33</v>
+      <c r="V224" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="225">
@@ -18146,8 +18146,8 @@
       <c r="U225" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V225" s="1" t="s">
-        <v>33</v>
+      <c r="V225" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="226">
@@ -18214,8 +18214,8 @@
       <c r="U226" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V226" s="1" t="s">
-        <v>33</v>
+      <c r="V226" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="227">
@@ -18262,7 +18262,7 @@
         <v>32</v>
       </c>
       <c r="O227" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P227" s="2" t="s">
         <v>32</v>
@@ -18282,8 +18282,8 @@
       <c r="U227" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V227" s="1" t="s">
-        <v>33</v>
+      <c r="V227" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="228">
@@ -18350,8 +18350,8 @@
       <c r="U228" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V228" s="1" t="s">
-        <v>33</v>
+      <c r="V228" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="229">
@@ -18418,8 +18418,8 @@
       <c r="U229" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V229" s="1" t="s">
-        <v>33</v>
+      <c r="V229" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="230">
@@ -18486,8 +18486,8 @@
       <c r="U230" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V230" s="1" t="s">
-        <v>33</v>
+      <c r="V230" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="231">
@@ -18554,8 +18554,8 @@
       <c r="U231" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V231" s="1" t="s">
-        <v>33</v>
+      <c r="V231" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="232">
@@ -18622,8 +18622,8 @@
       <c r="U232" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V232" s="1" t="s">
-        <v>33</v>
+      <c r="V232" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="233">
@@ -18637,7 +18637,7 @@
         <v>22</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>96</v>
@@ -18690,8 +18690,8 @@
       <c r="U233" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V233" s="1" t="s">
-        <v>33</v>
+      <c r="V233" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="234">
@@ -18758,8 +18758,8 @@
       <c r="U234" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V234" s="1" t="s">
-        <v>33</v>
+      <c r="V234" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="235">
@@ -18826,8 +18826,8 @@
       <c r="U235" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V235" s="1" t="s">
-        <v>33</v>
+      <c r="V235" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="236">
@@ -18894,8 +18894,8 @@
       <c r="U236" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V236" s="1" t="s">
-        <v>33</v>
+      <c r="V236" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="237">
@@ -19013,7 +19013,7 @@
         <v>32</v>
       </c>
       <c r="P238" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q238" s="2" t="s">
         <v>32</v>
@@ -19098,8 +19098,8 @@
       <c r="U239" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V239" s="1" t="s">
-        <v>33</v>
+      <c r="V239" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="240">
@@ -19166,8 +19166,8 @@
       <c r="U240" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V240" s="1" t="s">
-        <v>33</v>
+      <c r="V240" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="241">
@@ -19234,8 +19234,8 @@
       <c r="U241" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V241" s="1" t="s">
-        <v>33</v>
+      <c r="V241" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="242">
@@ -19249,7 +19249,7 @@
         <v>22</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>81</v>
@@ -19302,8 +19302,8 @@
       <c r="U242" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V242" s="1" t="s">
-        <v>33</v>
+      <c r="V242" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="243">
@@ -19370,8 +19370,8 @@
       <c r="U243" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V243" s="1" t="s">
-        <v>33</v>
+      <c r="V243" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="244">
@@ -19438,8 +19438,8 @@
       <c r="U244" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V244" s="1" t="s">
-        <v>33</v>
+      <c r="V244" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="245">
@@ -19506,8 +19506,8 @@
       <c r="U245" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V245" s="1" t="s">
-        <v>33</v>
+      <c r="V245" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="246">
@@ -19574,8 +19574,8 @@
       <c r="U246" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V246" s="1" t="s">
-        <v>33</v>
+      <c r="V246" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="247">
@@ -19642,8 +19642,8 @@
       <c r="U247" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V247" s="1" t="s">
-        <v>33</v>
+      <c r="V247" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="248">
@@ -19710,8 +19710,8 @@
       <c r="U248" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V248" s="1" t="s">
-        <v>33</v>
+      <c r="V248" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="249">
@@ -19778,8 +19778,8 @@
       <c r="U249" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V249" s="1" t="s">
-        <v>33</v>
+      <c r="V249" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="250">
@@ -19846,8 +19846,8 @@
       <c r="U250" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V250" s="1" t="s">
-        <v>33</v>
+      <c r="V250" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="251">
@@ -19914,8 +19914,8 @@
       <c r="U251" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V251" s="1" t="s">
-        <v>33</v>
+      <c r="V251" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="252">
@@ -19982,8 +19982,8 @@
       <c r="U252" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V252" s="1" t="s">
-        <v>33</v>
+      <c r="V252" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="253">
@@ -20050,8 +20050,8 @@
       <c r="U253" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V253" s="1" t="s">
-        <v>33</v>
+      <c r="V253" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="254">
@@ -20118,8 +20118,8 @@
       <c r="U254" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V254" s="1" t="s">
-        <v>33</v>
+      <c r="V254" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="255">
@@ -20186,8 +20186,8 @@
       <c r="U255" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V255" s="1" t="s">
-        <v>33</v>
+      <c r="V255" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="256">
@@ -20254,8 +20254,8 @@
       <c r="U256" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V256" s="1" t="s">
-        <v>33</v>
+      <c r="V256" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="257">
@@ -20322,8 +20322,8 @@
       <c r="U257" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V257" s="1" t="s">
-        <v>33</v>
+      <c r="V257" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="258">
@@ -20390,8 +20390,8 @@
       <c r="U258" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V258" s="1" t="s">
-        <v>33</v>
+      <c r="V258" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="259">
@@ -20458,8 +20458,8 @@
       <c r="U259" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V259" s="1" t="s">
-        <v>33</v>
+      <c r="V259" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="260">
@@ -20526,8 +20526,8 @@
       <c r="U260" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V260" s="1" t="s">
-        <v>33</v>
+      <c r="V260" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="261">
@@ -20594,8 +20594,8 @@
       <c r="U261" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V261" s="1" t="s">
-        <v>33</v>
+      <c r="V261" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="262">
@@ -20662,8 +20662,8 @@
       <c r="U262" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V262" s="1" t="s">
-        <v>33</v>
+      <c r="V262" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="263">
@@ -20730,8 +20730,8 @@
       <c r="U263" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V263" s="1" t="s">
-        <v>33</v>
+      <c r="V263" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="264">
@@ -20798,8 +20798,8 @@
       <c r="U264" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V264" s="1" t="s">
-        <v>33</v>
+      <c r="V264" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="265">
@@ -20866,8 +20866,8 @@
       <c r="U265" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V265" s="1" t="s">
-        <v>33</v>
+      <c r="V265" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="266">
@@ -20934,8 +20934,8 @@
       <c r="U266" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V266" s="1" t="s">
-        <v>33</v>
+      <c r="V266" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="267">
@@ -21002,8 +21002,8 @@
       <c r="U267" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V267" s="1" t="s">
-        <v>33</v>
+      <c r="V267" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="268">
@@ -21070,8 +21070,8 @@
       <c r="U268" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V268" s="1" t="s">
-        <v>33</v>
+      <c r="V268" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="269">
@@ -21138,8 +21138,8 @@
       <c r="U269" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V269" s="1" t="s">
-        <v>33</v>
+      <c r="V269" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="270">
@@ -21206,8 +21206,8 @@
       <c r="U270" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V270" s="1" t="s">
-        <v>33</v>
+      <c r="V270" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="271">
@@ -21274,8 +21274,8 @@
       <c r="U271" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V271" s="1" t="s">
-        <v>33</v>
+      <c r="V271" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="272">
@@ -21342,8 +21342,8 @@
       <c r="U272" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V272" s="1" t="s">
-        <v>33</v>
+      <c r="V272" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="273">
@@ -21410,8 +21410,8 @@
       <c r="U273" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V273" s="1" t="s">
-        <v>33</v>
+      <c r="V273" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="274">
@@ -21478,8 +21478,8 @@
       <c r="U274" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V274" s="1" t="s">
-        <v>33</v>
+      <c r="V274" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="275">
@@ -21546,8 +21546,8 @@
       <c r="U275" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V275" s="1" t="s">
-        <v>33</v>
+      <c r="V275" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="276">
@@ -21614,8 +21614,8 @@
       <c r="U276" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V276" s="1" t="s">
-        <v>33</v>
+      <c r="V276" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="277">
@@ -21682,8 +21682,8 @@
       <c r="U277" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V277" s="1" t="s">
-        <v>33</v>
+      <c r="V277" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="278">
@@ -21750,8 +21750,8 @@
       <c r="U278" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V278" s="1" t="s">
-        <v>33</v>
+      <c r="V278" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="279">
@@ -21818,8 +21818,8 @@
       <c r="U279" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V279" s="1" t="s">
-        <v>33</v>
+      <c r="V279" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="280">
@@ -21886,8 +21886,8 @@
       <c r="U280" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V280" s="1" t="s">
-        <v>33</v>
+      <c r="V280" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="281">
@@ -21954,8 +21954,8 @@
       <c r="U281" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V281" s="1" t="s">
-        <v>33</v>
+      <c r="V281" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="282">
@@ -22022,8 +22022,8 @@
       <c r="U282" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V282" s="1" t="s">
-        <v>33</v>
+      <c r="V282" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="283">
@@ -22090,8 +22090,8 @@
       <c r="U283" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V283" s="1" t="s">
-        <v>33</v>
+      <c r="V283" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="284">
@@ -22158,8 +22158,8 @@
       <c r="U284" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V284" s="1" t="s">
-        <v>33</v>
+      <c r="V284" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="285">
@@ -22226,8 +22226,8 @@
       <c r="U285" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V285" s="1" t="s">
-        <v>33</v>
+      <c r="V285" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="286">
@@ -22294,8 +22294,8 @@
       <c r="U286" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V286" s="1" t="s">
-        <v>33</v>
+      <c r="V286" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="287">
@@ -22362,8 +22362,8 @@
       <c r="U287" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V287" s="1" t="s">
-        <v>33</v>
+      <c r="V287" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="288">
@@ -22430,8 +22430,8 @@
       <c r="U288" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V288" s="1" t="s">
-        <v>33</v>
+      <c r="V288" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="289">
@@ -22498,8 +22498,8 @@
       <c r="U289" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V289" s="1" t="s">
-        <v>33</v>
+      <c r="V289" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="290">
@@ -22702,8 +22702,8 @@
       <c r="U292" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V292" s="1" t="s">
-        <v>33</v>
+      <c r="V292" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="293">
@@ -22770,8 +22770,8 @@
       <c r="U293" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V293" s="1" t="s">
-        <v>33</v>
+      <c r="V293" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="294">
@@ -22838,8 +22838,8 @@
       <c r="U294" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V294" s="1" t="s">
-        <v>33</v>
+      <c r="V294" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="295">
@@ -22906,8 +22906,8 @@
       <c r="U295" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V295" s="1" t="s">
-        <v>33</v>
+      <c r="V295" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="296">
@@ -22974,8 +22974,8 @@
       <c r="U296" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V296" s="1" t="s">
-        <v>33</v>
+      <c r="V296" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="297">
@@ -23042,8 +23042,8 @@
       <c r="U297" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V297" s="1" t="s">
-        <v>33</v>
+      <c r="V297" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="298">
@@ -23110,8 +23110,8 @@
       <c r="U298" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V298" s="1" t="s">
-        <v>33</v>
+      <c r="V298" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="299">
@@ -23178,8 +23178,8 @@
       <c r="U299" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V299" s="1" t="s">
-        <v>33</v>
+      <c r="V299" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="300">
@@ -23246,8 +23246,8 @@
       <c r="U300" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V300" s="1" t="s">
-        <v>33</v>
+      <c r="V300" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="301">
@@ -23314,8 +23314,8 @@
       <c r="U301" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V301" s="1" t="s">
-        <v>33</v>
+      <c r="V301" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="302">
@@ -23382,8 +23382,8 @@
       <c r="U302" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V302" s="1" t="s">
-        <v>33</v>
+      <c r="V302" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="303">
@@ -23397,7 +23397,7 @@
         <v>22</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>50</v>
@@ -23450,8 +23450,8 @@
       <c r="U303" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V303" s="1" t="s">
-        <v>33</v>
+      <c r="V303" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="304">
@@ -23518,8 +23518,8 @@
       <c r="U304" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V304" s="1" t="s">
-        <v>33</v>
+      <c r="V304" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="305">
@@ -23586,8 +23586,8 @@
       <c r="U305" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V305" s="1" t="s">
-        <v>33</v>
+      <c r="V305" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="306">
@@ -23654,8 +23654,8 @@
       <c r="U306" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V306" s="1" t="s">
-        <v>33</v>
+      <c r="V306" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="307">
@@ -23722,8 +23722,8 @@
       <c r="U307" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V307" s="1" t="s">
-        <v>33</v>
+      <c r="V307" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="308">
@@ -23770,7 +23770,7 @@
         <v>32</v>
       </c>
       <c r="O308" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P308" s="2" t="s">
         <v>32</v>
@@ -23790,8 +23790,8 @@
       <c r="U308" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V308" s="1" t="s">
-        <v>33</v>
+      <c r="V308" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="309">
@@ -23858,8 +23858,8 @@
       <c r="U309" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V309" s="1" t="s">
-        <v>33</v>
+      <c r="V309" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="310">
@@ -23873,7 +23873,7 @@
         <v>22</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>81</v>
@@ -23926,8 +23926,8 @@
       <c r="U310" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V310" s="1" t="s">
-        <v>33</v>
+      <c r="V310" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="311">
@@ -23994,8 +23994,8 @@
       <c r="U311" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V311" s="1" t="s">
-        <v>33</v>
+      <c r="V311" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="312">
@@ -24062,8 +24062,8 @@
       <c r="U312" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V312" s="1" t="s">
-        <v>33</v>
+      <c r="V312" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="313">
@@ -24130,8 +24130,8 @@
       <c r="U313" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V313" s="1" t="s">
-        <v>33</v>
+      <c r="V313" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="314">
@@ -24198,8 +24198,8 @@
       <c r="U314" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V314" s="1" t="s">
-        <v>33</v>
+      <c r="V314" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="315">
@@ -24266,8 +24266,8 @@
       <c r="U315" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V315" s="1" t="s">
-        <v>33</v>
+      <c r="V315" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="316">
@@ -24334,8 +24334,8 @@
       <c r="U316" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V316" s="1" t="s">
-        <v>33</v>
+      <c r="V316" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="317">
@@ -24402,8 +24402,8 @@
       <c r="U317" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V317" s="1" t="s">
-        <v>33</v>
+      <c r="V317" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="318">
@@ -24470,8 +24470,8 @@
       <c r="U318" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V318" s="1" t="s">
-        <v>33</v>
+      <c r="V318" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="319">
@@ -24538,8 +24538,8 @@
       <c r="U319" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V319" s="1" t="s">
-        <v>33</v>
+      <c r="V319" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="320">
@@ -24606,8 +24606,8 @@
       <c r="U320" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V320" s="1" t="s">
-        <v>33</v>
+      <c r="V320" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="321">
@@ -24674,8 +24674,8 @@
       <c r="U321" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V321" s="1" t="s">
-        <v>33</v>
+      <c r="V321" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="322">
@@ -24878,8 +24878,8 @@
       <c r="U324" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V324" s="1" t="s">
-        <v>33</v>
+      <c r="V324" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="325">
@@ -24946,8 +24946,8 @@
       <c r="U325" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V325" s="1" t="s">
-        <v>33</v>
+      <c r="V325" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="326">
@@ -25014,8 +25014,8 @@
       <c r="U326" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V326" s="1" t="s">
-        <v>33</v>
+      <c r="V326" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="327">
@@ -25082,8 +25082,8 @@
       <c r="U327" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V327" s="1" t="s">
-        <v>33</v>
+      <c r="V327" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="328">
@@ -25150,8 +25150,8 @@
       <c r="U328" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V328" s="1" t="s">
-        <v>33</v>
+      <c r="V328" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="329">
@@ -25218,8 +25218,8 @@
       <c r="U329" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V329" s="1" t="s">
-        <v>33</v>
+      <c r="V329" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="330">
@@ -25286,8 +25286,8 @@
       <c r="U330" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V330" s="1" t="s">
-        <v>33</v>
+      <c r="V330" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="331">
@@ -25354,8 +25354,8 @@
       <c r="U331" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V331" s="1" t="s">
-        <v>33</v>
+      <c r="V331" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="332">
@@ -25422,8 +25422,8 @@
       <c r="U332" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V332" s="1" t="s">
-        <v>33</v>
+      <c r="V332" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="333">
@@ -25490,8 +25490,8 @@
       <c r="U333" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V333" s="1" t="s">
-        <v>33</v>
+      <c r="V333" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="334">
@@ -25558,8 +25558,8 @@
       <c r="U334" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V334" s="1" t="s">
-        <v>33</v>
+      <c r="V334" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="335">
@@ -25626,8 +25626,8 @@
       <c r="U335" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V335" s="1" t="s">
-        <v>33</v>
+      <c r="V335" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="336">
@@ -25694,8 +25694,8 @@
       <c r="U336" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V336" s="1" t="s">
-        <v>33</v>
+      <c r="V336" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="337">
@@ -25762,8 +25762,8 @@
       <c r="U337" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V337" s="1" t="s">
-        <v>33</v>
+      <c r="V337" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="338">
@@ -25830,8 +25830,8 @@
       <c r="U338" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V338" s="1" t="s">
-        <v>33</v>
+      <c r="V338" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="339">
@@ -25898,8 +25898,8 @@
       <c r="U339" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V339" s="1" t="s">
-        <v>33</v>
+      <c r="V339" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="340">
@@ -25966,8 +25966,8 @@
       <c r="U340" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V340" s="1" t="s">
-        <v>33</v>
+      <c r="V340" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="341">
@@ -26034,8 +26034,8 @@
       <c r="U341" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V341" s="1" t="s">
-        <v>33</v>
+      <c r="V341" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="342">
@@ -26102,8 +26102,8 @@
       <c r="U342" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V342" s="1" t="s">
-        <v>33</v>
+      <c r="V342" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="343">
@@ -26170,8 +26170,8 @@
       <c r="U343" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V343" s="1" t="s">
-        <v>33</v>
+      <c r="V343" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="344">
@@ -26238,8 +26238,8 @@
       <c r="U344" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V344" s="1" t="s">
-        <v>33</v>
+      <c r="V344" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="345">
@@ -26306,8 +26306,8 @@
       <c r="U345" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V345" s="1" t="s">
-        <v>33</v>
+      <c r="V345" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="346">
@@ -26374,8 +26374,8 @@
       <c r="U346" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V346" s="1" t="s">
-        <v>33</v>
+      <c r="V346" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="347">
@@ -26442,8 +26442,8 @@
       <c r="U347" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V347" s="1" t="s">
-        <v>33</v>
+      <c r="V347" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="348">
@@ -26510,8 +26510,8 @@
       <c r="U348" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V348" s="1" t="s">
-        <v>33</v>
+      <c r="V348" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="349">
@@ -26578,8 +26578,8 @@
       <c r="U349" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V349" s="1" t="s">
-        <v>33</v>
+      <c r="V349" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="350">
@@ -26646,8 +26646,8 @@
       <c r="U350" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V350" s="1" t="s">
-        <v>33</v>
+      <c r="V350" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="351">
@@ -26714,8 +26714,8 @@
       <c r="U351" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V351" s="1" t="s">
-        <v>33</v>
+      <c r="V351" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="352">
@@ -26782,8 +26782,8 @@
       <c r="U352" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V352" s="1" t="s">
-        <v>33</v>
+      <c r="V352" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="353">
@@ -26850,8 +26850,8 @@
       <c r="U353" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V353" s="1" t="s">
-        <v>33</v>
+      <c r="V353" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="354">
@@ -26918,8 +26918,8 @@
       <c r="U354" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V354" s="1" t="s">
-        <v>33</v>
+      <c r="V354" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="355">
@@ -26986,8 +26986,8 @@
       <c r="U355" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V355" s="1" t="s">
-        <v>33</v>
+      <c r="V355" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="356">
@@ -27054,8 +27054,8 @@
       <c r="U356" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V356" s="1" t="s">
-        <v>33</v>
+      <c r="V356" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="357">
@@ -27122,8 +27122,8 @@
       <c r="U357" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V357" s="1" t="s">
-        <v>33</v>
+      <c r="V357" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="358">
@@ -27190,8 +27190,8 @@
       <c r="U358" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V358" s="1" t="s">
-        <v>33</v>
+      <c r="V358" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="359">
@@ -27258,8 +27258,8 @@
       <c r="U359" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V359" s="1" t="s">
-        <v>33</v>
+      <c r="V359" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="360">
@@ -27326,8 +27326,8 @@
       <c r="U360" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V360" s="1" t="s">
-        <v>33</v>
+      <c r="V360" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="361">
@@ -27394,8 +27394,8 @@
       <c r="U361" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V361" s="1" t="s">
-        <v>33</v>
+      <c r="V361" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="362">
@@ -27462,8 +27462,8 @@
       <c r="U362" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V362" s="1" t="s">
-        <v>33</v>
+      <c r="V362" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="363">
@@ -27530,8 +27530,8 @@
       <c r="U363" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V363" s="1" t="s">
-        <v>33</v>
+      <c r="V363" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="364">
@@ -27545,7 +27545,7 @@
         <v>22</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>59</v>
@@ -27598,8 +27598,8 @@
       <c r="U364" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V364" s="1" t="s">
-        <v>33</v>
+      <c r="V364" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="365">
@@ -27666,8 +27666,8 @@
       <c r="U365" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V365" s="1" t="s">
-        <v>33</v>
+      <c r="V365" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="366">
@@ -27734,8 +27734,8 @@
       <c r="U366" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V366" s="1" t="s">
-        <v>33</v>
+      <c r="V366" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="367">
@@ -27802,8 +27802,8 @@
       <c r="U367" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V367" s="1" t="s">
-        <v>33</v>
+      <c r="V367" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="368">
@@ -27870,8 +27870,8 @@
       <c r="U368" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V368" s="1" t="s">
-        <v>33</v>
+      <c r="V368" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="369">
@@ -27938,8 +27938,8 @@
       <c r="U369" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V369" s="1" t="s">
-        <v>33</v>
+      <c r="V369" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="370">
@@ -28006,8 +28006,8 @@
       <c r="U370" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V370" s="1" t="s">
-        <v>33</v>
+      <c r="V370" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="371">
@@ -28119,7 +28119,7 @@
         <v>30</v>
       </c>
       <c r="N372" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O372" s="2" t="s">
         <v>32</v>
@@ -28210,8 +28210,8 @@
       <c r="U373" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V373" s="1" t="s">
-        <v>33</v>
+      <c r="V373" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="374">
@@ -28278,8 +28278,8 @@
       <c r="U374" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V374" s="1" t="s">
-        <v>33</v>
+      <c r="V374" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="375">
@@ -28346,8 +28346,8 @@
       <c r="U375" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V375" s="1" t="s">
-        <v>33</v>
+      <c r="V375" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="376">
@@ -28414,8 +28414,8 @@
       <c r="U376" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V376" s="1" t="s">
-        <v>33</v>
+      <c r="V376" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="377">
@@ -28482,8 +28482,8 @@
       <c r="U377" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V377" s="1" t="s">
-        <v>33</v>
+      <c r="V377" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="378">
@@ -28550,8 +28550,8 @@
       <c r="U378" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V378" s="1" t="s">
-        <v>33</v>
+      <c r="V378" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="379">
@@ -28618,8 +28618,8 @@
       <c r="U379" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V379" s="1" t="s">
-        <v>33</v>
+      <c r="V379" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="380">
@@ -28686,8 +28686,8 @@
       <c r="U380" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V380" s="1" t="s">
-        <v>33</v>
+      <c r="V380" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="381">
@@ -28754,8 +28754,8 @@
       <c r="U381" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V381" s="1" t="s">
-        <v>33</v>
+      <c r="V381" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="382">
@@ -28822,8 +28822,8 @@
       <c r="U382" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V382" s="1" t="s">
-        <v>33</v>
+      <c r="V382" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="383">
@@ -28890,8 +28890,8 @@
       <c r="U383" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V383" s="1" t="s">
-        <v>33</v>
+      <c r="V383" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="384">
@@ -28958,8 +28958,8 @@
       <c r="U384" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V384" s="1" t="s">
-        <v>33</v>
+      <c r="V384" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="385">
@@ -29026,8 +29026,8 @@
       <c r="U385" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V385" s="1" t="s">
-        <v>33</v>
+      <c r="V385" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="386">
@@ -29094,8 +29094,8 @@
       <c r="U386" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V386" s="1" t="s">
-        <v>33</v>
+      <c r="V386" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="387">
@@ -29298,8 +29298,8 @@
       <c r="U389" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V389" s="1" t="s">
-        <v>33</v>
+      <c r="V389" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="390">
@@ -29366,8 +29366,8 @@
       <c r="U390" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V390" s="1" t="s">
-        <v>33</v>
+      <c r="V390" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="391">
@@ -29434,8 +29434,8 @@
       <c r="U391" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V391" s="1" t="s">
-        <v>33</v>
+      <c r="V391" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="392">
@@ -29502,8 +29502,8 @@
       <c r="U392" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V392" s="1" t="s">
-        <v>33</v>
+      <c r="V392" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="393">
@@ -29570,8 +29570,8 @@
       <c r="U393" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V393" s="1" t="s">
-        <v>33</v>
+      <c r="V393" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="394">
@@ -29638,8 +29638,8 @@
       <c r="U394" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V394" s="1" t="s">
-        <v>33</v>
+      <c r="V394" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="395">
@@ -29706,8 +29706,8 @@
       <c r="U395" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V395" s="1" t="s">
-        <v>33</v>
+      <c r="V395" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="396">
@@ -29774,8 +29774,8 @@
       <c r="U396" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V396" s="1" t="s">
-        <v>33</v>
+      <c r="V396" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="397">
@@ -29842,8 +29842,8 @@
       <c r="U397" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V397" s="1" t="s">
-        <v>33</v>
+      <c r="V397" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="398">
@@ -29910,8 +29910,8 @@
       <c r="U398" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V398" s="1" t="s">
-        <v>33</v>
+      <c r="V398" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="399">
@@ -29978,8 +29978,8 @@
       <c r="U399" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V399" s="1" t="s">
-        <v>33</v>
+      <c r="V399" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="400">
@@ -30046,8 +30046,8 @@
       <c r="U400" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V400" s="1" t="s">
-        <v>33</v>
+      <c r="V400" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="401">
@@ -30114,8 +30114,8 @@
       <c r="U401" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V401" s="1" t="s">
-        <v>33</v>
+      <c r="V401" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="402">
@@ -30182,8 +30182,8 @@
       <c r="U402" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V402" s="1" t="s">
-        <v>33</v>
+      <c r="V402" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="403">
@@ -30250,8 +30250,8 @@
       <c r="U403" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V403" s="1" t="s">
-        <v>33</v>
+      <c r="V403" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="404">
@@ -30318,8 +30318,8 @@
       <c r="U404" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V404" s="1" t="s">
-        <v>33</v>
+      <c r="V404" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="405">
@@ -30386,8 +30386,8 @@
       <c r="U405" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V405" s="1" t="s">
-        <v>33</v>
+      <c r="V405" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="406">
@@ -30499,7 +30499,7 @@
         <v>30</v>
       </c>
       <c r="N407" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O407" s="2" t="s">
         <v>32</v>
@@ -30590,8 +30590,8 @@
       <c r="U408" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V408" s="1" t="s">
-        <v>33</v>
+      <c r="V408" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="409">
@@ -30658,8 +30658,8 @@
       <c r="U409" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V409" s="1" t="s">
-        <v>33</v>
+      <c r="V409" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="410">
@@ -30726,8 +30726,8 @@
       <c r="U410" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V410" s="1" t="s">
-        <v>33</v>
+      <c r="V410" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="411">
@@ -30794,8 +30794,8 @@
       <c r="U411" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V411" s="1" t="s">
-        <v>33</v>
+      <c r="V411" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="412">
@@ -30862,8 +30862,8 @@
       <c r="U412" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V412" s="1" t="s">
-        <v>33</v>
+      <c r="V412" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="413">
@@ -30930,8 +30930,8 @@
       <c r="U413" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V413" s="1" t="s">
-        <v>33</v>
+      <c r="V413" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="414">
@@ -30998,8 +30998,8 @@
       <c r="U414" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V414" s="1" t="s">
-        <v>33</v>
+      <c r="V414" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="415">
@@ -31066,8 +31066,8 @@
       <c r="U415" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V415" s="1" t="s">
-        <v>33</v>
+      <c r="V415" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="416">
@@ -31134,8 +31134,8 @@
       <c r="U416" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V416" s="1" t="s">
-        <v>33</v>
+      <c r="V416" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="417">
@@ -31202,8 +31202,8 @@
       <c r="U417" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V417" s="1" t="s">
-        <v>33</v>
+      <c r="V417" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="418">
@@ -31270,8 +31270,8 @@
       <c r="U418" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V418" s="1" t="s">
-        <v>33</v>
+      <c r="V418" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="419">
@@ -31338,8 +31338,8 @@
       <c r="U419" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V419" s="1" t="s">
-        <v>33</v>
+      <c r="V419" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="420">
@@ -31406,8 +31406,8 @@
       <c r="U420" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V420" s="1" t="s">
-        <v>33</v>
+      <c r="V420" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="421">
@@ -31474,8 +31474,8 @@
       <c r="U421" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V421" s="1" t="s">
-        <v>33</v>
+      <c r="V421" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="422">
@@ -31542,8 +31542,8 @@
       <c r="U422" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V422" s="1" t="s">
-        <v>33</v>
+      <c r="V422" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="423">
@@ -31610,8 +31610,8 @@
       <c r="U423" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V423" s="1" t="s">
-        <v>33</v>
+      <c r="V423" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="424">
@@ -31678,8 +31678,8 @@
       <c r="U424" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V424" s="1" t="s">
-        <v>33</v>
+      <c r="V424" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="425">
@@ -31746,8 +31746,8 @@
       <c r="U425" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V425" s="1" t="s">
-        <v>33</v>
+      <c r="V425" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="426">
@@ -31814,8 +31814,8 @@
       <c r="U426" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V426" s="1" t="s">
-        <v>33</v>
+      <c r="V426" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="427">
@@ -31882,8 +31882,8 @@
       <c r="U427" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V427" s="1" t="s">
-        <v>33</v>
+      <c r="V427" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="428">
@@ -31950,8 +31950,8 @@
       <c r="U428" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V428" s="1" t="s">
-        <v>33</v>
+      <c r="V428" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="429">
@@ -32018,8 +32018,8 @@
       <c r="U429" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V429" s="1" t="s">
-        <v>33</v>
+      <c r="V429" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="430">
@@ -32131,7 +32131,7 @@
         <v>30</v>
       </c>
       <c r="N431" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="O431" s="2" t="s">
         <v>32</v>
@@ -32222,8 +32222,8 @@
       <c r="U432" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V432" s="1" t="s">
-        <v>33</v>
+      <c r="V432" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="433">
@@ -32290,8 +32290,8 @@
       <c r="U433" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V433" s="1" t="s">
-        <v>33</v>
+      <c r="V433" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="434">
@@ -32358,8 +32358,8 @@
       <c r="U434" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V434" s="1" t="s">
-        <v>33</v>
+      <c r="V434" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="435">
@@ -32426,8 +32426,8 @@
       <c r="U435" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V435" s="1" t="s">
-        <v>33</v>
+      <c r="V435" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="436">
@@ -32494,8 +32494,8 @@
       <c r="U436" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V436" s="1" t="s">
-        <v>33</v>
+      <c r="V436" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="437">
@@ -32562,8 +32562,8 @@
       <c r="U437" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V437" s="1" t="s">
-        <v>33</v>
+      <c r="V437" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="438">
@@ -32630,8 +32630,8 @@
       <c r="U438" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V438" s="1" t="s">
-        <v>33</v>
+      <c r="V438" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="439">
@@ -32698,8 +32698,8 @@
       <c r="U439" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V439" s="1" t="s">
-        <v>33</v>
+      <c r="V439" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="440">
@@ -32766,8 +32766,8 @@
       <c r="U440" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V440" s="1" t="s">
-        <v>33</v>
+      <c r="V440" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="441">
@@ -32834,8 +32834,8 @@
       <c r="U441" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V441" s="1" t="s">
-        <v>33</v>
+      <c r="V441" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="442">
@@ -32902,8 +32902,8 @@
       <c r="U442" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V442" s="1" t="s">
-        <v>33</v>
+      <c r="V442" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="443">
@@ -32970,8 +32970,8 @@
       <c r="U443" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V443" s="1" t="s">
-        <v>33</v>
+      <c r="V443" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="444">
@@ -33038,8 +33038,8 @@
       <c r="U444" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V444" s="1" t="s">
-        <v>33</v>
+      <c r="V444" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="445">
@@ -33106,8 +33106,8 @@
       <c r="U445" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V445" s="1" t="s">
-        <v>33</v>
+      <c r="V445" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="446">
@@ -33174,8 +33174,8 @@
       <c r="U446" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V446" s="1" t="s">
-        <v>33</v>
+      <c r="V446" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="447">
@@ -33242,8 +33242,8 @@
       <c r="U447" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V447" s="1" t="s">
-        <v>33</v>
+      <c r="V447" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="448">
@@ -33310,8 +33310,8 @@
       <c r="U448" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V448" s="1" t="s">
-        <v>33</v>
+      <c r="V448" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="449">
@@ -33328,7 +33328,7 @@
         <v>668</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>285</v>
@@ -33378,8 +33378,8 @@
       <c r="U449" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V449" s="1" t="s">
-        <v>33</v>
+      <c r="V449" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="450">
@@ -33446,8 +33446,8 @@
       <c r="U450" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V450" s="1" t="s">
-        <v>33</v>
+      <c r="V450" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="451">
@@ -33514,8 +33514,8 @@
       <c r="U451" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V451" s="1" t="s">
-        <v>33</v>
+      <c r="V451" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="452">
@@ -33582,8 +33582,8 @@
       <c r="U452" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V452" s="1" t="s">
-        <v>33</v>
+      <c r="V452" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="453">
@@ -33650,8 +33650,8 @@
       <c r="U453" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V453" s="1" t="s">
-        <v>33</v>
+      <c r="V453" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="454">
@@ -33718,8 +33718,8 @@
       <c r="U454" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V454" s="1" t="s">
-        <v>33</v>
+      <c r="V454" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="455">
@@ -33786,8 +33786,8 @@
       <c r="U455" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V455" s="1" t="s">
-        <v>33</v>
+      <c r="V455" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="456">
@@ -33854,8 +33854,8 @@
       <c r="U456" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V456" s="1" t="s">
-        <v>33</v>
+      <c r="V456" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="457">
@@ -33922,8 +33922,8 @@
       <c r="U457" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V457" s="1" t="s">
-        <v>33</v>
+      <c r="V457" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="458">
@@ -33990,8 +33990,8 @@
       <c r="U458" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V458" s="1" t="s">
-        <v>33</v>
+      <c r="V458" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="459">
@@ -34058,8 +34058,8 @@
       <c r="U459" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V459" s="1" t="s">
-        <v>33</v>
+      <c r="V459" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="460">
@@ -34126,8 +34126,8 @@
       <c r="U460" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V460" s="1" t="s">
-        <v>33</v>
+      <c r="V460" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="461">
@@ -34194,8 +34194,8 @@
       <c r="U461" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V461" s="1" t="s">
-        <v>33</v>
+      <c r="V461" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="462">
@@ -34262,8 +34262,8 @@
       <c r="U462" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V462" s="1" t="s">
-        <v>33</v>
+      <c r="V462" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="463">
@@ -34330,8 +34330,8 @@
       <c r="U463" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V463" s="1" t="s">
-        <v>33</v>
+      <c r="V463" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="464">
@@ -34398,8 +34398,8 @@
       <c r="U464" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V464" s="1" t="s">
-        <v>33</v>
+      <c r="V464" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="465">
@@ -34466,8 +34466,8 @@
       <c r="U465" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V465" s="1" t="s">
-        <v>33</v>
+      <c r="V465" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="466">
@@ -34534,8 +34534,8 @@
       <c r="U466" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V466" s="1" t="s">
-        <v>33</v>
+      <c r="V466" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="467">
@@ -34602,8 +34602,8 @@
       <c r="U467" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V467" s="1" t="s">
-        <v>33</v>
+      <c r="V467" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="468">
@@ -34670,8 +34670,8 @@
       <c r="U468" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V468" s="1" t="s">
-        <v>33</v>
+      <c r="V468" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="469">
@@ -34738,8 +34738,8 @@
       <c r="U469" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V469" s="1" t="s">
-        <v>33</v>
+      <c r="V469" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="470">
@@ -34806,8 +34806,8 @@
       <c r="U470" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V470" s="1" t="s">
-        <v>33</v>
+      <c r="V470" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="471">
@@ -34874,8 +34874,8 @@
       <c r="U471" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V471" s="1" t="s">
-        <v>33</v>
+      <c r="V471" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="472">
@@ -34942,8 +34942,8 @@
       <c r="U472" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V472" s="1" t="s">
-        <v>33</v>
+      <c r="V472" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="473">
@@ -35146,8 +35146,8 @@
       <c r="U475" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V475" s="1" t="s">
-        <v>33</v>
+      <c r="V475" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="476">
@@ -35214,8 +35214,8 @@
       <c r="U476" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V476" s="1" t="s">
-        <v>33</v>
+      <c r="V476" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="477">
@@ -35282,8 +35282,8 @@
       <c r="U477" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V477" s="1" t="s">
-        <v>33</v>
+      <c r="V477" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="478">
@@ -35350,8 +35350,8 @@
       <c r="U478" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V478" s="1" t="s">
-        <v>33</v>
+      <c r="V478" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="479">
@@ -35418,8 +35418,8 @@
       <c r="U479" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V479" s="1" t="s">
-        <v>33</v>
+      <c r="V479" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="480">
@@ -35486,8 +35486,8 @@
       <c r="U480" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V480" s="1" t="s">
-        <v>33</v>
+      <c r="V480" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="481">
@@ -35554,8 +35554,8 @@
       <c r="U481" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V481" s="1" t="s">
-        <v>33</v>
+      <c r="V481" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="482">
@@ -35622,8 +35622,8 @@
       <c r="U482" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V482" s="1" t="s">
-        <v>33</v>
+      <c r="V482" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="483">
@@ -35690,8 +35690,8 @@
       <c r="U483" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V483" s="1" t="s">
-        <v>33</v>
+      <c r="V483" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="484">
@@ -35758,8 +35758,8 @@
       <c r="U484" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V484" s="1" t="s">
-        <v>33</v>
+      <c r="V484" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="485">
@@ -35826,8 +35826,8 @@
       <c r="U485" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V485" s="1" t="s">
-        <v>33</v>
+      <c r="V485" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="486">
@@ -35894,8 +35894,8 @@
       <c r="U486" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V486" s="1" t="s">
-        <v>33</v>
+      <c r="V486" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="487">
@@ -35962,8 +35962,8 @@
       <c r="U487" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V487" s="1" t="s">
-        <v>33</v>
+      <c r="V487" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="488">
@@ -36030,8 +36030,8 @@
       <c r="U488" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V488" s="1" t="s">
-        <v>33</v>
+      <c r="V488" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="489">
@@ -36098,8 +36098,8 @@
       <c r="U489" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V489" s="1" t="s">
-        <v>33</v>
+      <c r="V489" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="490">
@@ -36166,8 +36166,8 @@
       <c r="U490" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V490" s="1" t="s">
-        <v>33</v>
+      <c r="V490" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="491">
@@ -36234,8 +36234,8 @@
       <c r="U491" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V491" s="1" t="s">
-        <v>33</v>
+      <c r="V491" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="492">
@@ -36302,8 +36302,8 @@
       <c r="U492" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V492" s="1" t="s">
-        <v>33</v>
+      <c r="V492" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="493">
@@ -36370,8 +36370,8 @@
       <c r="U493" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V493" s="1" t="s">
-        <v>33</v>
+      <c r="V493" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="494">
@@ -36438,8 +36438,8 @@
       <c r="U494" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V494" s="1" t="s">
-        <v>33</v>
+      <c r="V494" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="495">
@@ -36506,8 +36506,8 @@
       <c r="U495" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V495" s="1" t="s">
-        <v>33</v>
+      <c r="V495" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="496">
@@ -36574,8 +36574,8 @@
       <c r="U496" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V496" s="1" t="s">
-        <v>33</v>
+      <c r="V496" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="497">
@@ -36642,8 +36642,8 @@
       <c r="U497" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V497" s="1" t="s">
-        <v>33</v>
+      <c r="V497" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="498">
@@ -36710,8 +36710,8 @@
       <c r="U498" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V498" s="1" t="s">
-        <v>33</v>
+      <c r="V498" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="499">
@@ -36778,8 +36778,8 @@
       <c r="U499" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V499" s="1" t="s">
-        <v>33</v>
+      <c r="V499" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="500">
@@ -36846,8 +36846,8 @@
       <c r="U500" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V500" s="1" t="s">
-        <v>33</v>
+      <c r="V500" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="501">
@@ -36914,8 +36914,8 @@
       <c r="U501" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V501" s="1" t="s">
-        <v>33</v>
+      <c r="V501" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="502">
@@ -36982,8 +36982,8 @@
       <c r="U502" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V502" s="1" t="s">
-        <v>33</v>
+      <c r="V502" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="503">
@@ -37050,8 +37050,8 @@
       <c r="U503" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V503" s="1" t="s">
-        <v>33</v>
+      <c r="V503" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="504">
@@ -37118,8 +37118,8 @@
       <c r="U504" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V504" s="1" t="s">
-        <v>33</v>
+      <c r="V504" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="505">
@@ -37186,8 +37186,8 @@
       <c r="U505" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V505" s="1" t="s">
-        <v>33</v>
+      <c r="V505" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="506">
@@ -37254,8 +37254,8 @@
       <c r="U506" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V506" s="1" t="s">
-        <v>33</v>
+      <c r="V506" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="507">
@@ -37322,8 +37322,8 @@
       <c r="U507" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V507" s="1" t="s">
-        <v>33</v>
+      <c r="V507" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="508">
@@ -37526,8 +37526,8 @@
       <c r="U510" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V510" s="1" t="s">
-        <v>33</v>
+      <c r="V510" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="511">
@@ -37594,8 +37594,8 @@
       <c r="U511" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V511" s="1" t="s">
-        <v>33</v>
+      <c r="V511" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="512">
@@ -37662,8 +37662,8 @@
       <c r="U512" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V512" s="1" t="s">
-        <v>33</v>
+      <c r="V512" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="513">
@@ -37730,8 +37730,8 @@
       <c r="U513" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V513" s="1" t="s">
-        <v>33</v>
+      <c r="V513" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="514">
@@ -37798,8 +37798,8 @@
       <c r="U514" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V514" s="1" t="s">
-        <v>33</v>
+      <c r="V514" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="515">
@@ -37866,8 +37866,8 @@
       <c r="U515" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V515" s="1" t="s">
-        <v>33</v>
+      <c r="V515" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="516">
@@ -37934,8 +37934,8 @@
       <c r="U516" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V516" s="1" t="s">
-        <v>33</v>
+      <c r="V516" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="517">
@@ -38002,8 +38002,8 @@
       <c r="U517" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V517" s="1" t="s">
-        <v>33</v>
+      <c r="V517" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="518">
@@ -38070,8 +38070,8 @@
       <c r="U518" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V518" s="1" t="s">
-        <v>33</v>
+      <c r="V518" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="519">
@@ -38138,8 +38138,8 @@
       <c r="U519" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V519" s="1" t="s">
-        <v>33</v>
+      <c r="V519" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="520">
@@ -38206,8 +38206,8 @@
       <c r="U520" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V520" s="1" t="s">
-        <v>33</v>
+      <c r="V520" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="521">
@@ -38319,7 +38319,7 @@
         <v>30</v>
       </c>
       <c r="N522" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O522" s="2" t="s">
         <v>32</v>
@@ -38410,8 +38410,8 @@
       <c r="U523" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V523" s="1" t="s">
-        <v>33</v>
+      <c r="V523" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="524">
@@ -38478,8 +38478,8 @@
       <c r="U524" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V524" s="1" t="s">
-        <v>33</v>
+      <c r="V524" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="525">
@@ -38546,8 +38546,8 @@
       <c r="U525" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V525" s="1" t="s">
-        <v>33</v>
+      <c r="V525" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="526">
@@ -38703,7 +38703,7 @@
         <v>40</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G528" s="1" t="s">
         <v>779</v>
@@ -38750,8 +38750,8 @@
       <c r="U528" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V528" s="1" t="s">
-        <v>33</v>
+      <c r="V528" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="529">
@@ -38818,8 +38818,8 @@
       <c r="U529" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V529" s="1" t="s">
-        <v>33</v>
+      <c r="V529" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="530">
@@ -38886,8 +38886,8 @@
       <c r="U530" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V530" s="1" t="s">
-        <v>33</v>
+      <c r="V530" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="531">
@@ -38954,8 +38954,8 @@
       <c r="U531" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V531" s="1" t="s">
-        <v>33</v>
+      <c r="V531" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="532">
@@ -39022,8 +39022,8 @@
       <c r="U532" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V532" s="1" t="s">
-        <v>33</v>
+      <c r="V532" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="533">
@@ -39090,8 +39090,8 @@
       <c r="U533" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V533" s="1" t="s">
-        <v>33</v>
+      <c r="V533" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="534">
@@ -39158,8 +39158,8 @@
       <c r="U534" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V534" s="1" t="s">
-        <v>33</v>
+      <c r="V534" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="535">
@@ -39226,8 +39226,8 @@
       <c r="U535" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V535" s="1" t="s">
-        <v>33</v>
+      <c r="V535" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="536">
@@ -39294,8 +39294,8 @@
       <c r="U536" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V536" s="1" t="s">
-        <v>33</v>
+      <c r="V536" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="537">
@@ -39362,8 +39362,8 @@
       <c r="U537" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V537" s="1" t="s">
-        <v>33</v>
+      <c r="V537" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="538">
@@ -39430,8 +39430,8 @@
       <c r="U538" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V538" s="1" t="s">
-        <v>33</v>
+      <c r="V538" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="539">
@@ -39498,8 +39498,8 @@
       <c r="U539" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V539" s="1" t="s">
-        <v>33</v>
+      <c r="V539" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="540">
@@ -39566,8 +39566,8 @@
       <c r="U540" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V540" s="1" t="s">
-        <v>33</v>
+      <c r="V540" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="541">
@@ -39634,8 +39634,8 @@
       <c r="U541" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V541" s="1" t="s">
-        <v>33</v>
+      <c r="V541" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="542">
@@ -39702,8 +39702,8 @@
       <c r="U542" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V542" s="1" t="s">
-        <v>33</v>
+      <c r="V542" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="543">
@@ -39770,8 +39770,8 @@
       <c r="U543" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V543" s="1" t="s">
-        <v>33</v>
+      <c r="V543" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-HKG.xlsx
+++ b/Excel-XLSX/UN-HKG.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="836">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>4CMppg</t>
+    <t>5R6sZh</t>
   </si>
   <si>
     <t>1951</t>
@@ -2509,6 +2509,12 @@
   </si>
   <si>
     <t>558</t>
+  </si>
+  <si>
+    <t>Türkiye</t>
+  </si>
+  <si>
+    <t>TUR</t>
   </si>
   <si>
     <t>559</t>
@@ -39875,7 +39881,7 @@
         <v>31</v>
       </c>
       <c r="N544" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="O544" s="2" t="s">
         <v>33</v>
@@ -39987,16 +39993,16 @@
         <v>815</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G546" s="1" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="H546" s="1" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="I546" s="1" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="J546" s="2" t="s">
         <v>29</v>
@@ -40011,7 +40017,7 @@
         <v>31</v>
       </c>
       <c r="N546" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="O546" s="2" t="s">
         <v>33</v>
@@ -40055,16 +40061,16 @@
         <v>815</v>
       </c>
       <c r="F547" s="2" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="G547" s="1" t="s">
-        <v>189</v>
+        <v>555</v>
       </c>
       <c r="H547" s="1" t="s">
-        <v>190</v>
+        <v>556</v>
       </c>
       <c r="I547" s="1" t="s">
-        <v>190</v>
+        <v>557</v>
       </c>
       <c r="J547" s="2" t="s">
         <v>29</v>
@@ -40079,7 +40085,7 @@
         <v>31</v>
       </c>
       <c r="N547" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="O547" s="2" t="s">
         <v>33</v>
@@ -40123,16 +40129,16 @@
         <v>815</v>
       </c>
       <c r="F548" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G548" s="1" t="s">
-        <v>555</v>
+        <v>224</v>
       </c>
       <c r="H548" s="1" t="s">
-        <v>556</v>
+        <v>225</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>557</v>
+        <v>225</v>
       </c>
       <c r="J548" s="2" t="s">
         <v>29</v>
@@ -40191,16 +40197,16 @@
         <v>815</v>
       </c>
       <c r="F549" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G549" s="1" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="H549" s="1" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="I549" s="1" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="J549" s="2" t="s">
         <v>29</v>
@@ -40215,7 +40221,7 @@
         <v>31</v>
       </c>
       <c r="N549" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="O549" s="2" t="s">
         <v>33</v>
@@ -40259,16 +40265,16 @@
         <v>815</v>
       </c>
       <c r="F550" s="2" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="G550" s="1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="H550" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="I550" s="1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J550" s="2" t="s">
         <v>29</v>
@@ -40283,7 +40289,7 @@
         <v>31</v>
       </c>
       <c r="N550" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="O550" s="2" t="s">
         <v>33</v>
@@ -40327,16 +40333,16 @@
         <v>815</v>
       </c>
       <c r="F551" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="G551" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="H551" s="1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="I551" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="J551" s="2" t="s">
         <v>29</v>
@@ -40351,7 +40357,7 @@
         <v>31</v>
       </c>
       <c r="N551" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="O551" s="2" t="s">
         <v>33</v>
@@ -40395,16 +40401,16 @@
         <v>815</v>
       </c>
       <c r="F552" s="2" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="G552" s="1" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="H552" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="I552" s="1" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="J552" s="2" t="s">
         <v>29</v>
@@ -40419,7 +40425,7 @@
         <v>31</v>
       </c>
       <c r="N552" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="O552" s="2" t="s">
         <v>33</v>
@@ -40463,16 +40469,16 @@
         <v>815</v>
       </c>
       <c r="F553" s="2" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>182</v>
+        <v>269</v>
       </c>
       <c r="H553" s="1" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="I553" s="1" t="s">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="J553" s="2" t="s">
         <v>29</v>
@@ -40487,7 +40493,7 @@
         <v>31</v>
       </c>
       <c r="N553" s="2" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="O553" s="2" t="s">
         <v>33</v>
@@ -40531,16 +40537,16 @@
         <v>815</v>
       </c>
       <c r="F554" s="2" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
       <c r="G554" s="1" t="s">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="H554" s="1" t="s">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="I554" s="1" t="s">
-        <v>271</v>
+        <v>150</v>
       </c>
       <c r="J554" s="2" t="s">
         <v>29</v>
@@ -40555,7 +40561,7 @@
         <v>31</v>
       </c>
       <c r="N554" s="2" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="O554" s="2" t="s">
         <v>33</v>
@@ -40599,16 +40605,16 @@
         <v>815</v>
       </c>
       <c r="F555" s="2" t="s">
-        <v>148</v>
+        <v>364</v>
       </c>
       <c r="G555" s="1" t="s">
-        <v>149</v>
+        <v>365</v>
       </c>
       <c r="H555" s="1" t="s">
-        <v>150</v>
+        <v>366</v>
       </c>
       <c r="I555" s="1" t="s">
-        <v>150</v>
+        <v>367</v>
       </c>
       <c r="J555" s="2" t="s">
         <v>29</v>
@@ -40623,7 +40629,7 @@
         <v>31</v>
       </c>
       <c r="N555" s="2" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="O555" s="2" t="s">
         <v>33</v>
@@ -40667,16 +40673,16 @@
         <v>815</v>
       </c>
       <c r="F556" s="2" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>365</v>
+        <v>510</v>
       </c>
       <c r="H556" s="1" t="s">
-        <v>366</v>
+        <v>511</v>
       </c>
       <c r="I556" s="1" t="s">
-        <v>367</v>
+        <v>511</v>
       </c>
       <c r="J556" s="2" t="s">
         <v>29</v>
@@ -40691,7 +40697,7 @@
         <v>31</v>
       </c>
       <c r="N556" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="O556" s="2" t="s">
         <v>33</v>
@@ -40735,16 +40741,16 @@
         <v>815</v>
       </c>
       <c r="F557" s="2" t="s">
-        <v>383</v>
+        <v>304</v>
       </c>
       <c r="G557" s="1" t="s">
-        <v>510</v>
+        <v>305</v>
       </c>
       <c r="H557" s="1" t="s">
-        <v>511</v>
+        <v>306</v>
       </c>
       <c r="I557" s="1" t="s">
-        <v>511</v>
+        <v>306</v>
       </c>
       <c r="J557" s="2" t="s">
         <v>29</v>
@@ -40759,7 +40765,7 @@
         <v>31</v>
       </c>
       <c r="N557" s="2" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="O557" s="2" t="s">
         <v>33</v>
@@ -40803,16 +40809,16 @@
         <v>815</v>
       </c>
       <c r="F558" s="2" t="s">
-        <v>304</v>
+        <v>217</v>
       </c>
       <c r="G558" s="1" t="s">
-        <v>305</v>
+        <v>218</v>
       </c>
       <c r="H558" s="1" t="s">
-        <v>306</v>
+        <v>219</v>
       </c>
       <c r="I558" s="1" t="s">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="J558" s="2" t="s">
         <v>29</v>
@@ -40827,7 +40833,7 @@
         <v>31</v>
       </c>
       <c r="N558" s="2" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="O558" s="2" t="s">
         <v>33</v>
@@ -40871,16 +40877,16 @@
         <v>815</v>
       </c>
       <c r="F559" s="2" t="s">
-        <v>217</v>
+        <v>423</v>
       </c>
       <c r="G559" s="1" t="s">
-        <v>218</v>
+        <v>831</v>
       </c>
       <c r="H559" s="1" t="s">
-        <v>219</v>
+        <v>832</v>
       </c>
       <c r="I559" s="1" t="s">
-        <v>220</v>
+        <v>832</v>
       </c>
       <c r="J559" s="2" t="s">
         <v>29</v>
@@ -40933,7 +40939,7 @@
         <v>22</v>
       </c>
       <c r="D560" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>815</v>
@@ -40963,7 +40969,7 @@
         <v>31</v>
       </c>
       <c r="N560" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O560" s="2" t="s">
         <v>33</v>
@@ -41001,7 +41007,7 @@
         <v>22</v>
       </c>
       <c r="D561" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E561" s="2" t="s">
         <v>815</v>
@@ -41031,7 +41037,7 @@
         <v>31</v>
       </c>
       <c r="N561" s="2" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="O561" s="2" t="s">
         <v>33</v>
@@ -41069,7 +41075,7 @@
         <v>22</v>
       </c>
       <c r="D562" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E562" s="2" t="s">
         <v>815</v>
